--- a/docs/CodeSystem-BRJustificativaIndividuoNaoIdentificado.xlsx
+++ b/docs/CodeSystem-BRJustificativaIndividuoNaoIdentificado.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://www.saude.gov.br)</t>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
